--- a/sources/xls/simple_test.xlsx
+++ b/sources/xls/simple_test.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14295" windowHeight="12705"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="12705"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -135,18 +135,16 @@
   <si>
     <t>28x</t>
   </si>
+  <si>
+    <t>str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,345 +153,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -501,307 +175,24 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1091,22 +482,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F389"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="21.625" customWidth="1"/>
     <col min="4" max="4" width="20.5" customWidth="1"/>
     <col min="6" max="6" width="39.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1126,7 +516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1146,9 +536,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>1</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
@@ -1163,7 +553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1171,7 +561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1188,7 +578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1196,7 +586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1213,7 +603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1221,7 +611,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1238,7 +628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1246,7 +636,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1263,7 +653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1271,7 +661,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1288,7 +678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1296,7 +686,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1313,7 +703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1321,7 +711,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1338,7 +728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1346,7 +736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1363,7 +753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1371,7 +761,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1388,7 +778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1396,7 +786,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1413,7 +803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1421,7 +811,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1438,7 +828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1446,7 +836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1463,7 +853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1471,7 +861,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1488,7 +878,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1496,7 +886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1513,7 +903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1521,7 +911,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1538,7 +928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1546,7 +936,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1563,7 +953,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1571,7 +961,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1588,7 +978,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1596,7 +986,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1613,7 +1003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1621,7 +1011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1638,7 +1028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1646,7 +1036,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1663,7 +1053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1671,7 +1061,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1688,7 +1078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1696,7 +1086,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1713,7 +1103,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1721,7 +1111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1738,7 +1128,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1746,7 +1136,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1763,7 +1153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1771,7 +1161,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1788,7 +1178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1796,7 +1186,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1813,7 +1203,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1821,7 +1211,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1838,7 +1228,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1846,7 +1236,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1863,7 +1253,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1871,7 +1261,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1888,7 +1278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1896,7 +1286,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1913,7 +1303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1921,7 +1311,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>63</v>
       </c>
@@ -1938,7 +1328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1946,7 +1336,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1963,7 +1353,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1971,7 +1361,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>67</v>
       </c>
@@ -1988,7 +1378,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1996,7 +1386,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>69</v>
       </c>
@@ -2013,7 +1403,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>70</v>
       </c>
@@ -2021,7 +1411,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>71</v>
       </c>
@@ -2038,7 +1428,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>72</v>
       </c>
@@ -2046,7 +1436,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>73</v>
       </c>
@@ -2063,7 +1453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>74</v>
       </c>
@@ -2071,7 +1461,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>75</v>
       </c>
@@ -2088,7 +1478,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>76</v>
       </c>
@@ -2096,7 +1486,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>77</v>
       </c>
@@ -2113,7 +1503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>78</v>
       </c>
@@ -2121,7 +1511,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>79</v>
       </c>
@@ -2138,7 +1528,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>80</v>
       </c>
@@ -2146,7 +1536,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>81</v>
       </c>
@@ -2163,7 +1553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>82</v>
       </c>
@@ -2171,7 +1561,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>83</v>
       </c>
@@ -2188,7 +1578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>84</v>
       </c>
@@ -2196,7 +1586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>85</v>
       </c>
@@ -2213,7 +1603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>86</v>
       </c>
@@ -2221,7 +1611,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>87</v>
       </c>
@@ -2238,7 +1628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>88</v>
       </c>
@@ -2246,7 +1636,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>89</v>
       </c>
@@ -2263,7 +1653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>90</v>
       </c>
@@ -2271,7 +1661,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>91</v>
       </c>
@@ -2288,7 +1678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>92</v>
       </c>
@@ -2296,7 +1686,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>93</v>
       </c>
@@ -2313,7 +1703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>94</v>
       </c>
@@ -2321,7 +1711,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>95</v>
       </c>
@@ -2338,7 +1728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>96</v>
       </c>
@@ -2346,7 +1736,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>97</v>
       </c>
@@ -2363,7 +1753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>98</v>
       </c>
@@ -2371,7 +1761,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>99</v>
       </c>
@@ -2388,7 +1778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>100</v>
       </c>
@@ -2396,7 +1786,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>101</v>
       </c>
@@ -2413,7 +1803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>102</v>
       </c>
@@ -2421,7 +1811,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>103</v>
       </c>
@@ -2438,7 +1828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>104</v>
       </c>
@@ -2446,7 +1836,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>105</v>
       </c>
@@ -2463,7 +1853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>106</v>
       </c>
@@ -2471,7 +1861,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>107</v>
       </c>
@@ -2488,7 +1878,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>108</v>
       </c>
@@ -2496,7 +1886,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>109</v>
       </c>
@@ -2513,7 +1903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>110</v>
       </c>
@@ -2521,7 +1911,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>111</v>
       </c>
@@ -2538,7 +1928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>112</v>
       </c>
@@ -2546,7 +1936,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>113</v>
       </c>
@@ -2563,7 +1953,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>114</v>
       </c>
@@ -2571,7 +1961,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>115</v>
       </c>
@@ -2588,7 +1978,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>116</v>
       </c>
@@ -2596,7 +1986,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>117</v>
       </c>
@@ -2613,7 +2003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>118</v>
       </c>
@@ -2621,7 +2011,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>119</v>
       </c>
@@ -2638,7 +2028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>120</v>
       </c>
@@ -2646,7 +2036,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>121</v>
       </c>
@@ -2663,7 +2053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>122</v>
       </c>
@@ -2671,7 +2061,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>123</v>
       </c>
@@ -2688,7 +2078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>124</v>
       </c>
@@ -2696,7 +2086,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>125</v>
       </c>
@@ -2713,7 +2103,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>126</v>
       </c>
@@ -2721,7 +2111,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>127</v>
       </c>
@@ -2738,7 +2128,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>128</v>
       </c>
@@ -2746,7 +2136,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>129</v>
       </c>
@@ -2763,7 +2153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>130</v>
       </c>
@@ -2771,7 +2161,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>131</v>
       </c>
@@ -2788,7 +2178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>132</v>
       </c>
@@ -2796,7 +2186,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>133</v>
       </c>
@@ -2813,7 +2203,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>134</v>
       </c>
@@ -2821,7 +2211,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>135</v>
       </c>
@@ -2838,7 +2228,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>136</v>
       </c>
@@ -2846,7 +2236,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>137</v>
       </c>
@@ -2863,7 +2253,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>138</v>
       </c>
@@ -2871,7 +2261,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>139</v>
       </c>
@@ -2888,7 +2278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A142">
         <v>140</v>
       </c>
@@ -2896,7 +2286,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A143">
         <v>141</v>
       </c>
@@ -2913,7 +2303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A144">
         <v>142</v>
       </c>
@@ -2921,7 +2311,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A145">
         <v>143</v>
       </c>
@@ -2938,7 +2328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A146">
         <v>144</v>
       </c>
@@ -2946,7 +2336,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A147">
         <v>145</v>
       </c>
@@ -2963,7 +2353,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A148">
         <v>146</v>
       </c>
@@ -2971,7 +2361,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A149">
         <v>147</v>
       </c>
@@ -2988,7 +2378,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A150">
         <v>148</v>
       </c>
@@ -2996,7 +2386,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A151">
         <v>149</v>
       </c>
@@ -3013,7 +2403,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A152">
         <v>150</v>
       </c>
@@ -3021,7 +2411,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A153">
         <v>151</v>
       </c>
@@ -3038,7 +2428,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A154">
         <v>152</v>
       </c>
@@ -3046,7 +2436,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A155">
         <v>153</v>
       </c>
@@ -3063,7 +2453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A156">
         <v>154</v>
       </c>
@@ -3071,7 +2461,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A157">
         <v>155</v>
       </c>
@@ -3088,7 +2478,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A158">
         <v>156</v>
       </c>
@@ -3096,7 +2486,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A159">
         <v>157</v>
       </c>
@@ -3113,7 +2503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A160">
         <v>158</v>
       </c>
@@ -3121,7 +2511,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A161">
         <v>159</v>
       </c>
@@ -3138,7 +2528,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A162">
         <v>160</v>
       </c>
@@ -3146,7 +2536,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A163">
         <v>161</v>
       </c>
@@ -3163,7 +2553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A164">
         <v>162</v>
       </c>
@@ -3171,7 +2561,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A165">
         <v>163</v>
       </c>
@@ -3188,7 +2578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A166">
         <v>164</v>
       </c>
@@ -3196,7 +2586,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A167">
         <v>165</v>
       </c>
@@ -3213,7 +2603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A168">
         <v>166</v>
       </c>
@@ -3221,7 +2611,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A169">
         <v>167</v>
       </c>
@@ -3238,7 +2628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A170">
         <v>168</v>
       </c>
@@ -3246,7 +2636,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A171">
         <v>169</v>
       </c>
@@ -3263,7 +2653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A172">
         <v>170</v>
       </c>
@@ -3271,7 +2661,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A173">
         <v>171</v>
       </c>
@@ -3288,7 +2678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A174">
         <v>172</v>
       </c>
@@ -3296,7 +2686,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A175">
         <v>173</v>
       </c>
@@ -3313,7 +2703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A176">
         <v>174</v>
       </c>
@@ -3321,7 +2711,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A177">
         <v>175</v>
       </c>
@@ -3338,7 +2728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A178">
         <v>176</v>
       </c>
@@ -3346,7 +2736,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A179">
         <v>177</v>
       </c>
@@ -3363,7 +2753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A180">
         <v>178</v>
       </c>
@@ -3371,7 +2761,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A181">
         <v>179</v>
       </c>
@@ -3388,7 +2778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A182">
         <v>180</v>
       </c>
@@ -3396,7 +2786,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A183">
         <v>181</v>
       </c>
@@ -3413,7 +2803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A184">
         <v>182</v>
       </c>
@@ -3421,7 +2811,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A185">
         <v>183</v>
       </c>
@@ -3438,7 +2828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A186">
         <v>184</v>
       </c>
@@ -3446,7 +2836,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A187">
         <v>185</v>
       </c>
@@ -3463,7 +2853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A188">
         <v>186</v>
       </c>
@@ -3471,7 +2861,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A189">
         <v>187</v>
       </c>
@@ -3488,7 +2878,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A190">
         <v>188</v>
       </c>
@@ -3496,7 +2886,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A191">
         <v>189</v>
       </c>
@@ -3513,7 +2903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A192">
         <v>190</v>
       </c>
@@ -3521,7 +2911,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A193">
         <v>191</v>
       </c>
@@ -3538,7 +2928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A194">
         <v>192</v>
       </c>
@@ -3546,7 +2936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A195">
         <v>193</v>
       </c>
@@ -3563,7 +2953,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A196">
         <v>194</v>
       </c>
@@ -3571,7 +2961,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A197">
         <v>195</v>
       </c>
@@ -3588,7 +2978,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A198">
         <v>196</v>
       </c>
@@ -3596,7 +2986,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A199">
         <v>197</v>
       </c>
@@ -3613,7 +3003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A200">
         <v>198</v>
       </c>
@@ -3621,7 +3011,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A201">
         <v>199</v>
       </c>
@@ -3638,7 +3028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A202">
         <v>200</v>
       </c>
@@ -3646,7 +3036,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A203">
         <v>201</v>
       </c>
@@ -3663,7 +3053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A204">
         <v>202</v>
       </c>
@@ -3671,7 +3061,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A205">
         <v>203</v>
       </c>
@@ -3688,7 +3078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A206">
         <v>204</v>
       </c>
@@ -3696,7 +3086,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A207">
         <v>205</v>
       </c>
@@ -3713,7 +3103,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A208">
         <v>206</v>
       </c>
@@ -3721,7 +3111,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A209">
         <v>207</v>
       </c>
@@ -3738,7 +3128,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A210">
         <v>208</v>
       </c>
@@ -3746,7 +3136,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A211">
         <v>209</v>
       </c>
@@ -3763,7 +3153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A212">
         <v>210</v>
       </c>
@@ -3771,7 +3161,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A213">
         <v>211</v>
       </c>
@@ -3788,7 +3178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A214">
         <v>212</v>
       </c>
@@ -3796,7 +3186,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A215">
         <v>213</v>
       </c>
@@ -3813,7 +3203,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A216">
         <v>214</v>
       </c>
@@ -3821,7 +3211,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A217">
         <v>215</v>
       </c>
@@ -3838,7 +3228,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A218">
         <v>216</v>
       </c>
@@ -3846,7 +3236,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A219">
         <v>217</v>
       </c>
@@ -3863,7 +3253,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A220">
         <v>218</v>
       </c>
@@ -3871,7 +3261,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A221">
         <v>219</v>
       </c>
@@ -3888,7 +3278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A222">
         <v>220</v>
       </c>
@@ -3896,7 +3286,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A223">
         <v>221</v>
       </c>
@@ -3913,7 +3303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A224">
         <v>222</v>
       </c>
@@ -3921,7 +3311,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A225">
         <v>223</v>
       </c>
@@ -3938,7 +3328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A226">
         <v>224</v>
       </c>
@@ -3946,7 +3336,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A227">
         <v>225</v>
       </c>
@@ -3963,7 +3353,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A228">
         <v>226</v>
       </c>
@@ -3971,7 +3361,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A229">
         <v>227</v>
       </c>
@@ -3988,7 +3378,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A230">
         <v>228</v>
       </c>
@@ -3996,7 +3386,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A231">
         <v>229</v>
       </c>
@@ -4013,7 +3403,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A232">
         <v>230</v>
       </c>
@@ -4021,7 +3411,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A233">
         <v>231</v>
       </c>
@@ -4038,7 +3428,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A234">
         <v>232</v>
       </c>
@@ -4046,7 +3436,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A235">
         <v>233</v>
       </c>
@@ -4063,7 +3453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A236">
         <v>234</v>
       </c>
@@ -4071,7 +3461,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A237">
         <v>235</v>
       </c>
@@ -4088,7 +3478,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A238">
         <v>236</v>
       </c>
@@ -4096,7 +3486,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A239">
         <v>237</v>
       </c>
@@ -4113,7 +3503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A240">
         <v>238</v>
       </c>
@@ -4121,7 +3511,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A241">
         <v>239</v>
       </c>
@@ -4138,7 +3528,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A242">
         <v>240</v>
       </c>
@@ -4146,7 +3536,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A243">
         <v>241</v>
       </c>
@@ -4163,7 +3553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A244">
         <v>242</v>
       </c>
@@ -4171,7 +3561,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A245">
         <v>243</v>
       </c>
@@ -4188,7 +3578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A246">
         <v>244</v>
       </c>
@@ -4196,7 +3586,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A247">
         <v>245</v>
       </c>
@@ -4213,7 +3603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A248">
         <v>246</v>
       </c>
@@ -4221,7 +3611,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A249">
         <v>247</v>
       </c>
@@ -4238,7 +3628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A250">
         <v>248</v>
       </c>
@@ -4246,7 +3636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A251">
         <v>249</v>
       </c>
@@ -4263,7 +3653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A252">
         <v>250</v>
       </c>
@@ -4271,7 +3661,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A253">
         <v>251</v>
       </c>
@@ -4288,7 +3678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A254">
         <v>252</v>
       </c>
@@ -4296,7 +3686,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A255">
         <v>253</v>
       </c>
@@ -4313,7 +3703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A256">
         <v>254</v>
       </c>
@@ -4321,7 +3711,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A257">
         <v>255</v>
       </c>
@@ -4338,7 +3728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A258">
         <v>256</v>
       </c>
@@ -4346,7 +3736,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A259">
         <v>257</v>
       </c>
@@ -4363,7 +3753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A260">
         <v>258</v>
       </c>
@@ -4371,7 +3761,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A261">
         <v>259</v>
       </c>
@@ -4388,7 +3778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A262">
         <v>260</v>
       </c>
@@ -4396,7 +3786,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A263">
         <v>261</v>
       </c>
@@ -4413,7 +3803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A264">
         <v>262</v>
       </c>
@@ -4421,7 +3811,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A265">
         <v>263</v>
       </c>
@@ -4438,7 +3828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A266">
         <v>264</v>
       </c>
@@ -4446,7 +3836,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A267">
         <v>265</v>
       </c>
@@ -4463,7 +3853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A268">
         <v>266</v>
       </c>
@@ -4471,7 +3861,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A269">
         <v>267</v>
       </c>
@@ -4488,7 +3878,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A270">
         <v>268</v>
       </c>
@@ -4496,7 +3886,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A271">
         <v>269</v>
       </c>
@@ -4513,7 +3903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A272">
         <v>270</v>
       </c>
@@ -4521,7 +3911,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A273">
         <v>271</v>
       </c>
@@ -4538,7 +3928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A274">
         <v>272</v>
       </c>
@@ -4546,7 +3936,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A275">
         <v>273</v>
       </c>
@@ -4563,7 +3953,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A276">
         <v>274</v>
       </c>
@@ -4571,7 +3961,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A277">
         <v>275</v>
       </c>
@@ -4588,7 +3978,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A278">
         <v>276</v>
       </c>
@@ -4596,7 +3986,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A279">
         <v>277</v>
       </c>
@@ -4613,7 +4003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A280">
         <v>278</v>
       </c>
@@ -4621,7 +4011,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A281">
         <v>279</v>
       </c>
@@ -4638,7 +4028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A282">
         <v>280</v>
       </c>
@@ -4646,7 +4036,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A283">
         <v>281</v>
       </c>
@@ -4663,7 +4053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A284">
         <v>282</v>
       </c>
@@ -4671,7 +4061,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A285">
         <v>283</v>
       </c>
@@ -4688,7 +4078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A286">
         <v>284</v>
       </c>
@@ -4696,7 +4086,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A287">
         <v>285</v>
       </c>
@@ -4713,7 +4103,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A288">
         <v>286</v>
       </c>
@@ -4721,7 +4111,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A289">
         <v>287</v>
       </c>
@@ -4738,7 +4128,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A290">
         <v>288</v>
       </c>
@@ -4746,7 +4136,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A291">
         <v>289</v>
       </c>
@@ -4763,7 +4153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A292">
         <v>290</v>
       </c>
@@ -4771,7 +4161,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A293">
         <v>291</v>
       </c>
@@ -4788,7 +4178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A294">
         <v>292</v>
       </c>
@@ -4796,7 +4186,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A295">
         <v>293</v>
       </c>
@@ -4813,7 +4203,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A296">
         <v>294</v>
       </c>
@@ -4821,7 +4211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A297">
         <v>295</v>
       </c>
@@ -4838,7 +4228,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A298">
         <v>296</v>
       </c>
@@ -4846,7 +4236,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A299">
         <v>297</v>
       </c>
@@ -4863,7 +4253,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A300">
         <v>298</v>
       </c>
@@ -4871,7 +4261,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A301">
         <v>299</v>
       </c>
@@ -4888,7 +4278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A302">
         <v>300</v>
       </c>
@@ -4896,7 +4286,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A303">
         <v>301</v>
       </c>
@@ -4913,7 +4303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A304">
         <v>302</v>
       </c>
@@ -4921,7 +4311,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A305">
         <v>303</v>
       </c>
@@ -4938,7 +4328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="306" spans="1:2">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A306">
         <v>304</v>
       </c>
@@ -4946,7 +4336,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A307">
         <v>305</v>
       </c>
@@ -4963,7 +4353,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A308">
         <v>306</v>
       </c>
@@ -4971,7 +4361,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A309">
         <v>307</v>
       </c>
@@ -4988,7 +4378,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A310">
         <v>308</v>
       </c>
@@ -4996,7 +4386,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A311">
         <v>309</v>
       </c>
@@ -5013,7 +4403,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="312" spans="1:2">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A312">
         <v>310</v>
       </c>
@@ -5021,7 +4411,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A313">
         <v>311</v>
       </c>
@@ -5038,7 +4428,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="314" spans="1:2">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A314">
         <v>312</v>
       </c>
@@ -5046,7 +4436,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A315">
         <v>313</v>
       </c>
@@ -5063,7 +4453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="316" spans="1:2">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A316">
         <v>314</v>
       </c>
@@ -5071,7 +4461,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A317">
         <v>315</v>
       </c>
@@ -5088,7 +4478,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="318" spans="1:2">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A318">
         <v>316</v>
       </c>
@@ -5096,7 +4486,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A319">
         <v>317</v>
       </c>
@@ -5113,7 +4503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="320" spans="1:2">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A320">
         <v>318</v>
       </c>
@@ -5121,7 +4511,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A321">
         <v>319</v>
       </c>
@@ -5138,7 +4528,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="322" spans="1:2">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A322">
         <v>320</v>
       </c>
@@ -5146,7 +4536,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A323">
         <v>321</v>
       </c>
@@ -5163,7 +4553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A324">
         <v>322</v>
       </c>
@@ -5171,7 +4561,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A325">
         <v>323</v>
       </c>
@@ -5188,7 +4578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A326">
         <v>324</v>
       </c>
@@ -5196,7 +4586,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A327">
         <v>325</v>
       </c>
@@ -5213,7 +4603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A328">
         <v>326</v>
       </c>
@@ -5221,7 +4611,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A329">
         <v>327</v>
       </c>
@@ -5238,7 +4628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="330" spans="1:2">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A330">
         <v>328</v>
       </c>
@@ -5246,7 +4636,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A331">
         <v>329</v>
       </c>
@@ -5263,7 +4653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="332" spans="1:2">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A332">
         <v>330</v>
       </c>
@@ -5271,7 +4661,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A333">
         <v>331</v>
       </c>
@@ -5288,7 +4678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A334">
         <v>332</v>
       </c>
@@ -5296,7 +4686,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A335">
         <v>333</v>
       </c>
@@ -5313,7 +4703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="336" spans="1:2">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A336">
         <v>334</v>
       </c>
@@ -5321,7 +4711,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A337">
         <v>335</v>
       </c>
@@ -5338,7 +4728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="338" spans="1:2">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A338">
         <v>336</v>
       </c>
@@ -5346,7 +4736,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A339">
         <v>337</v>
       </c>
@@ -5363,7 +4753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A340">
         <v>338</v>
       </c>
@@ -5371,7 +4761,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A341">
         <v>339</v>
       </c>
@@ -5388,7 +4778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="342" spans="1:2">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A342">
         <v>340</v>
       </c>
@@ -5396,7 +4786,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A343">
         <v>341</v>
       </c>
@@ -5413,7 +4803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="344" spans="1:2">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A344">
         <v>342</v>
       </c>
@@ -5421,7 +4811,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A345">
         <v>343</v>
       </c>
@@ -5438,7 +4828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="346" spans="1:2">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A346">
         <v>344</v>
       </c>
@@ -5446,7 +4836,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A347">
         <v>345</v>
       </c>
@@ -5463,7 +4853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="348" spans="1:2">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A348">
         <v>346</v>
       </c>
@@ -5471,7 +4861,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A349">
         <v>347</v>
       </c>
@@ -5488,7 +4878,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="350" spans="1:2">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A350">
         <v>348</v>
       </c>
@@ -5496,7 +4886,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A351">
         <v>349</v>
       </c>
@@ -5513,7 +4903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="352" spans="1:2">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A352">
         <v>350</v>
       </c>
@@ -5521,7 +4911,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A353">
         <v>351</v>
       </c>
@@ -5538,7 +4928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="354" spans="1:2">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A354">
         <v>352</v>
       </c>
@@ -5546,7 +4936,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A355">
         <v>353</v>
       </c>
@@ -5563,7 +4953,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="356" spans="1:2">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A356">
         <v>354</v>
       </c>
@@ -5571,7 +4961,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A357">
         <v>355</v>
       </c>
@@ -5588,7 +4978,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="358" spans="1:2">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A358">
         <v>356</v>
       </c>
@@ -5596,7 +4986,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A359">
         <v>357</v>
       </c>
@@ -5613,7 +5003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="360" spans="1:2">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A360">
         <v>358</v>
       </c>
@@ -5621,7 +5011,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A361">
         <v>359</v>
       </c>
@@ -5638,7 +5028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="362" spans="1:2">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A362">
         <v>360</v>
       </c>
@@ -5646,7 +5036,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A363">
         <v>361</v>
       </c>
@@ -5663,7 +5053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="364" spans="1:2">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A364">
         <v>362</v>
       </c>
@@ -5671,7 +5061,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A365">
         <v>363</v>
       </c>
@@ -5688,7 +5078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="366" spans="1:2">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A366">
         <v>364</v>
       </c>
@@ -5696,7 +5086,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A367">
         <v>365</v>
       </c>
@@ -5713,7 +5103,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="368" spans="1:2">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A368">
         <v>366</v>
       </c>
@@ -5721,7 +5111,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A369">
         <v>367</v>
       </c>
@@ -5738,7 +5128,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="370" spans="1:2">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A370">
         <v>368</v>
       </c>
@@ -5746,7 +5136,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A371">
         <v>369</v>
       </c>
@@ -5763,7 +5153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="372" spans="1:2">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A372">
         <v>370</v>
       </c>
@@ -5771,7 +5161,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A373">
         <v>371</v>
       </c>
@@ -5788,7 +5178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="374" spans="1:2">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A374">
         <v>372</v>
       </c>
@@ -5796,7 +5186,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A375">
         <v>373</v>
       </c>
@@ -5813,7 +5203,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="376" spans="1:2">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A376">
         <v>374</v>
       </c>
@@ -5821,7 +5211,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A377">
         <v>375</v>
       </c>
@@ -5838,7 +5228,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="378" spans="1:2">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A378">
         <v>376</v>
       </c>
@@ -5846,7 +5236,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A379">
         <v>377</v>
       </c>
@@ -5863,7 +5253,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="380" spans="1:2">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A380">
         <v>378</v>
       </c>
@@ -5871,7 +5261,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A381">
         <v>379</v>
       </c>
@@ -5888,7 +5278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="382" spans="1:2">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A382">
         <v>380</v>
       </c>
@@ -5896,7 +5286,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A383">
         <v>381</v>
       </c>
@@ -5913,7 +5303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="384" spans="1:2">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A384">
         <v>382</v>
       </c>
@@ -5921,7 +5311,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A385">
         <v>383</v>
       </c>
@@ -5938,7 +5328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="386" spans="1:2">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A386">
         <v>384</v>
       </c>
@@ -5946,7 +5336,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A387">
         <v>385</v>
       </c>
@@ -5963,7 +5353,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="388" spans="1:2">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A388">
         <v>386</v>
       </c>
@@ -5971,7 +5361,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A389">
         <v>387</v>
       </c>
@@ -5989,7 +5379,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>